--- a/experiments/dirf_sgsim/DIRFSGS EXPERIMENT ATILLA 256x256x128 - 100 r.xlsx
+++ b/experiments/dirf_sgsim/DIRFSGS EXPERIMENT ATILLA 256x256x128 - 100 r.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="219" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="131" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -616,8 +616,8 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A3" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="G2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="N5" activeCellId="0" pane="topLeft" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,13 +838,28 @@
         <v>0.941663776866515</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>15095252</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H8" s="0" t="n">
         <f aca="false">(SUM(C8:G8)-J8-I8)/5</f>
         <v>0</v>
@@ -855,7 +870,23 @@
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">MAX(C8:G8)</f>
-        <v>0</v>
+        <v>15095252</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">C8/1000/60</f>
+        <v>251.587533333333</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <f aca="false">K8/60</f>
+        <v>4.19312555555556</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <f aca="false">$C$4/C8</f>
+        <v>2.02483913484849</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <f aca="false">M8/B8</f>
+        <v>1.01241956742425</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
@@ -917,6 +948,21 @@
       <c r="B11" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>8474162</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" s="0" t="n">
         <f aca="false">(SUM(C11:G11)-J11-I11)/5</f>
         <v>0</v>
@@ -927,23 +973,23 @@
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">MAX(C11:G11)</f>
-        <v>0</v>
+        <v>8474162</v>
       </c>
       <c r="K11" s="2" t="n">
         <f aca="false">C11/1000/60</f>
-        <v>0</v>
+        <v>141.236033333333</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">K11/60</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="e">
+        <v>2.35393388888889</v>
+      </c>
+      <c r="M11" s="3" t="n">
         <f aca="false">C4/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="4" t="e">
+        <v>3.60690024571161</v>
+      </c>
+      <c r="N11" s="4" t="n">
         <f aca="false">M11/B11</f>
-        <v>#DIV/0!</v>
+        <v>0.901725061427903</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
@@ -953,6 +999,21 @@
       <c r="B12" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>8458599</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" s="0" t="n">
         <f aca="false">(SUM(C12:G12)-J12-I12)/5</f>
         <v>0</v>
@@ -963,23 +1024,23 @@
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">MAX(C12:G12)</f>
-        <v>0</v>
+        <v>8458599</v>
       </c>
       <c r="K12" s="2" t="n">
         <f aca="false">C12/1000/60</f>
-        <v>0</v>
+        <v>140.97665</v>
       </c>
       <c r="L12" s="2" t="n">
         <f aca="false">K12/60</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="e">
+        <v>2.34961083333333</v>
+      </c>
+      <c r="M12" s="3" t="n">
         <f aca="false">C4/C12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4" t="e">
+        <v>3.61353659157976</v>
+      </c>
+      <c r="N12" s="4" t="n">
         <f aca="false">M12/B12</f>
-        <v>#DIV/0!</v>
+        <v>0.903384147894941</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
@@ -1040,6 +1101,21 @@
       <c r="B15" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>6871381</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" s="0" t="n">
         <f aca="false">(SUM(C15:G15)-J15-I15)/5</f>
         <v>0</v>
@@ -1050,23 +1126,23 @@
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">MAX(C15:G15)</f>
-        <v>0</v>
+        <v>6871381</v>
       </c>
       <c r="K15" s="2" t="n">
         <f aca="false">C15/1000/60</f>
-        <v>0</v>
+        <v>114.523016666667</v>
       </c>
       <c r="L15" s="2" t="n">
         <f aca="false">K15/60</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="e">
+        <v>1.90871694444444</v>
+      </c>
+      <c r="M15" s="3" t="n">
         <f aca="false">C4/C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4" t="e">
+        <v>4.44822620081757</v>
+      </c>
+      <c r="N15" s="4" t="n">
         <f aca="false">M15/B15</f>
-        <v>#DIV/0!</v>
+        <v>0.556028275102196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
@@ -1076,6 +1152,21 @@
       <c r="B16" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>6867019</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" s="0" t="n">
         <f aca="false">(SUM(C16:G16)-J16-I16)/5</f>
         <v>0</v>
@@ -1086,23 +1177,23 @@
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">MAX(C16:G16)</f>
-        <v>0</v>
+        <v>6867019</v>
       </c>
       <c r="K16" s="2" t="n">
         <f aca="false">C16/1000/60</f>
-        <v>0</v>
+        <v>114.450316666667</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">K16/60</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="e">
+        <v>1.90750527777778</v>
+      </c>
+      <c r="M16" s="3" t="n">
         <f aca="false">C4/C16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4" t="e">
+        <v>4.45105175914032</v>
+      </c>
+      <c r="N16" s="4" t="n">
         <f aca="false">M16/B16</f>
-        <v>#DIV/0!</v>
+        <v>0.55638146989254</v>
       </c>
       <c r="O16" s="4"/>
     </row>
